--- a/data.xlsx
+++ b/data.xlsx
@@ -8,23 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\תכנות שנה ב\פרויקט גמר\myProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECE48E-649B-4FFD-95E4-177063FEC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994FD6D-C99B-469B-92E6-1489FCE69647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="speed" sheetId="1" r:id="rId1"/>
-    <sheet name="AngleSensors" sheetId="2" r:id="rId2"/>
+    <sheet name="wavelength" sheetId="1" r:id="rId1"/>
+    <sheet name="speed" sheetId="2" r:id="rId2"/>
     <sheet name="CompassValues" sheetId="3" r:id="rId3"/>
-    <sheet name="SensorsValue" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>מהירות הקול במים</t>
+  </si>
+  <si>
+    <t>תדירות הקול</t>
+  </si>
+  <si>
+    <t>אורך גל הקול</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,50 +365,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>A2/A3</f>
+        <v>1000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1474.9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.4749000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A85385-49E7-4764-A98D-A06E2E2D179E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E50A948-54B1-4410-928B-53BAF820D915}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA7B9A3-8466-4DB0-B76D-74187E652658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478B2899-1C41-40B3-B8B9-21111F4573EF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A600C6-AE7F-441F-9BA8-999CE68CBDB6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\תכנות שנה ב\פרויקט גמר\myProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994FD6D-C99B-469B-92E6-1489FCE69647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FAA44-7153-469F-A7FA-4FB13663BD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wavelength" sheetId="1" r:id="rId1"/>
-    <sheet name="speed" sheetId="2" r:id="rId2"/>
-    <sheet name="CompassValues" sheetId="3" r:id="rId3"/>
+    <sheet name="AngleSensors" sheetId="4" r:id="rId2"/>
+    <sheet name="speed" sheetId="2" r:id="rId3"/>
+    <sheet name="CompassValues" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -367,7 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -408,6 +409,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE08C3B-1E3A-4DF0-BD4D-CD56985E0B94}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E50A948-54B1-4410-928B-53BAF820D915}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -427,7 +493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478B2899-1C41-40B3-B8B9-21111F4573EF}">
   <dimension ref="A1"/>
   <sheetViews>
